--- a/StatisticsFirstRun/FQIS_Vergleiche.xlsx
+++ b/StatisticsFirstRun/FQIS_Vergleiche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robi\Desktop\datamining_frequent_itemset\StatisticsFirstRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F965F-9400-40E1-9906-5567FCBC8183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22866E18-2DFB-46A4-ABE9-CF9AAE1A5602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58427FD8-DC18-4D65-B39A-1F66BDC5AE51}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>Vergleich Frequent Itemset bilden:</t>
   </si>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,6 +2090,11 @@
         <v>63</v>
       </c>
     </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>85</v>
@@ -2287,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F083D0-1F6D-4E17-94AA-143F89735623}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
